--- a/downloaded_files/EECS306_Tutorial-35320.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35320.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,42 +51,6 @@
     <x:t>Ahmed Mohamed Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد فاروق محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد هشام سيد سالم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Hesham Sayed Salem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد يحى سعد السيد نافع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ايه ايمن محمد عبدالمجيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aya Ayman Mohamed Abdelmegid</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220006</x:t>
   </x:si>
   <x:si>
@@ -96,15 +60,6 @@
     <x:t>Jomana Timor Mohamed Elbakry Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جني محمد شريف محمود محمد علي جبر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jana Mohamed Sherif Gabr</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220007</x:t>
   </x:si>
   <x:si>
@@ -123,15 +78,6 @@
     <x:t>Ruaa Amr Farouk Tolba</x:t>
   </x:si>
   <x:si>
-    <x:t>1230319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روفانا عماد سمير ميشيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rovana Emad Samir Micheal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220124</x:t>
   </x:si>
   <x:si>
@@ -141,15 +87,6 @@
     <x:t>Retag Mohamed Othman</x:t>
   </x:si>
   <x:si>
-    <x:t>1220246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220011</x:t>
   </x:si>
   <x:si>
@@ -159,15 +96,6 @@
     <x:t>Abdelrahman Ahmed Ragab Mansour Sakr</x:t>
   </x:si>
   <x:si>
-    <x:t>1220111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220182</x:t>
   </x:si>
   <x:si>
@@ -186,24 +114,6 @@
     <x:t>Abdelrahman Tarek Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
-    <x:t>1230058</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن على احمد حشاد علي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdulRahman Ali Ahmed Hashad Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد السيد السيد حيدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohamed Elsayed Elsayed Hayder</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220255</x:t>
   </x:si>
   <x:si>
@@ -222,15 +132,6 @@
     <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
   </x:si>
   <x:si>
-    <x:t>1220016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي علاء عبدالعزيز نيازي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Alaa Abd Elaziz Niazi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220132</x:t>
   </x:si>
   <x:si>
@@ -249,15 +150,6 @@
     <x:t>OMAR MAHMOUD DEMERDASH SAYED AHMED</x:t>
   </x:si>
   <x:si>
-    <x:t>1230221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وائل على عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Omar Wael Ali Omar </x:t>
-  </x:si>
-  <x:si>
     <x:t>4230159</x:t>
   </x:si>
   <x:si>
@@ -276,24 +168,6 @@
     <x:t>Karim Mahmoud Mohamed Mostafa Hegab</x:t>
   </x:si>
   <x:si>
-    <x:t>1220138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لوجينا شوقي أحمد شحاته</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lujina Shawki Ahmed Shehata</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مارك ماجد ناجح لبيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARK MAGED NAGEH LABIB</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230189</x:t>
   </x:si>
   <x:si>
@@ -303,42 +177,6 @@
     <x:t>Mohamed Tamer Abdel Aziz</x:t>
   </x:si>
   <x:si>
-    <x:t>1230245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد خالد ابواليزيد شلبي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Khaled Abouelyazid Shalaby</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد هاني فوزي محمد الخطيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد يوسف السيد يوسف الشيشى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Yusef Elsayed Elsheshe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم اشرف محمد محمد غمرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Ashraf Mohamed Mohamed Ghamry</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210423</x:t>
   </x:si>
   <x:si>
@@ -355,15 +193,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى ياسر محمد محمد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Yasser Mohammed Mohammed Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1220150</x:t>
@@ -497,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -807,7 +636,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.620625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.100625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -952,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.869234375</x:v>
+        <x:v>45906.6649324884</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -984,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.7659619213</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1016,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.41445</x:v>
+        <x:v>45906.6642064468</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1048,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.7462855324</x:v>
+        <x:v>45906.6650091435</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1080,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6649324884</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1112,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.8785141204</x:v>
+        <x:v>45906.6644298958</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1144,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1176,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6642064468</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1208,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.8786267708</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1240,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6650091435</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1272,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8597579514</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1304,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1336,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6952866551</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1368,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6644298958</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1400,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1432,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8698265857</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1464,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6651809838</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1496,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1514,614 +1343,6 @@
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
     </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45906.6644033912</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45909.4204701389</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45906.6647810185</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.6642892014</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45912.8691628472</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6650642708</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.6644706366</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45912.8661060185</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.6798916319</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.6644580208</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45912.8599707523</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45906.6663738079</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45906.6852452546</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45912.8660346875</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.6649126968</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.6647476505</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45912.8785739236</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45906.6650957523</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45906.6645900463</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2134,9 +1355,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Communications-1: Analogue Communications (EECS306) Location : [20505]20505-45-الجيزة الرئيسي Time : Wednesday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS306_Tutorial-35320.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35320.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,24 @@
     <x:t>Ahmed Mohamed Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد فاروق محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد هشام سيد سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hesham Sayed Salem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220006</x:t>
   </x:si>
   <x:si>
@@ -114,6 +132,15 @@
     <x:t>Abdelrahman Tarek Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>1220096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد فتحى محمد موسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman mohamed fathy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220255</x:t>
   </x:si>
   <x:si>
@@ -130,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي علاء عبدالعزيز نيازي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Alaa Abd Elaziz Niazi</x:t>
   </x:si>
   <x:si>
     <x:t>1220132</x:t>
@@ -326,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -636,7 +672,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.620625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.100625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -781,7 +817,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6649324884</x:v>
+        <x:v>45927.4142976505</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -813,7 +849,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45927.4273397801</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +881,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6642064468</x:v>
+        <x:v>45906.6649324884</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +913,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6650091435</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +945,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.6642064468</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +977,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6644298958</x:v>
+        <x:v>45906.6650091435</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +1009,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1041,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45906.6644298958</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6644033912</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45927.4261841435</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45927.4143632292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1378,134 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45906.6649126968</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45906.6647476505</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45906.6650957523</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45906.6645900463</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35320.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35320.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Tarek Ibrahim Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد السيد السيد حيدر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Elsayed Elsayed Hayder</x:t>
   </x:si>
   <x:si>
     <x:t>1220096</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1105,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4261841435</x:v>
+        <x:v>45928.6424638542</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45927.4261841435</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6644033912</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4143632292</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45927.4143632292</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45906.6645900463</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35320.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35320.xlsx
@@ -858,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4273397801</x:v>
+        <x:v>45928.877968831</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>

--- a/downloaded_files/EECS306_Tutorial-35320.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35320.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Hesham Sayed Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايه ايمن محمد عبدالمجيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aya Ayman Mohamed Abdelmegid</x:t>
   </x:si>
   <x:si>
     <x:t>1220006</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -890,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6649324884</x:v>
+        <x:v>45929.4700886921</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45906.6649324884</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6642064468</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6650091435</x:v>
+        <x:v>45906.6642064468</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.6650091435</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6644298958</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.6644298958</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45928.6424638542</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4261841435</x:v>
+        <x:v>45928.6424638542</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45927.4261841435</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6644033912</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4143632292</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45927.4143632292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45906.6645900463</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35320.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35320.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Mahmoud Mohamed Mostafa Hegab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لوجينا شوقي أحمد شحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lujina Shawki Ahmed Shehata</x:t>
   </x:si>
   <x:si>
     <x:t>4230189</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45912.8661060185</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45906.6645900463</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35320.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35320.xlsx
@@ -57,7 +57,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1220003</x:t>

--- a/downloaded_files/EECS306_Tutorial-35320.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35320.xlsx
@@ -174,7 +174,7 @@
     <x:t>عبدالرحمن مصطفى محمد رضوان احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+    <x:t>ABDELRAHMAN MOSTAFA MOHAMMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220016</x:t>
@@ -255,7 +255,7 @@
     <x:t>مصطفى ايهاب حلمي محمد رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+    <x:t>MOSTAFA EHAB HELMY MOHAMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220150</x:t>
@@ -264,7 +264,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220087</x:t>
